--- a/dashboard/assets/data/test.xlsx
+++ b/dashboard/assets/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo/Desktop/data-runners/dashboard/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D316DFF2-CB75-2E4F-9E86-E917B37A92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840FB51F-EE01-DE47-868A-A1731D49543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{517C14D0-415C-6C45-9CD3-0757733CD81B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>GPA</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>chocolate, chips, ice cream</t>
-  </si>
-  <si>
-    <t>frozen yogurt, pizza, fast food</t>
   </si>
   <si>
     <t>Pizza, Mac and cheese, ice cream</t>
@@ -789,7 +786,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,7 +816,7 @@
         <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,11 +834,11 @@
       <c r="A4">
         <v>3.3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>5555</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,10 +846,10 @@
         <v>3.2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -860,7 +857,7 @@
         <v>3.5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>190</v>
@@ -874,7 +871,7 @@
         <v>2.25</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>190</v>
@@ -899,7 +896,7 @@
         <v>3.3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>137</v>
@@ -910,7 +907,7 @@
         <v>3.3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>180</v>
@@ -932,7 +929,7 @@
         <v>3.5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>116</v>
@@ -943,7 +940,7 @@
         <v>3.9039999999999999</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>110</v>
@@ -954,7 +951,7 @@
         <v>3.4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>264</v>
@@ -965,7 +962,7 @@
         <v>3.6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>123</v>
@@ -987,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>180</v>
@@ -998,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>145</v>
@@ -1009,7 +1006,7 @@
         <v>3.6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>170</v>
@@ -1020,7 +1017,7 @@
         <v>3.4</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>135</v>
@@ -1031,7 +1028,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>165</v>
@@ -1042,7 +1039,7 @@
         <v>3.3</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>175</v>
@@ -1053,7 +1050,7 @@
         <v>3.87</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>195</v>
@@ -1064,7 +1061,7 @@
         <v>3.7</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>185</v>
@@ -1075,7 +1072,7 @@
         <v>3.7</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>185</v>
@@ -1086,7 +1083,7 @@
         <v>3.9</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>105</v>
@@ -1097,7 +1094,7 @@
         <v>2.8</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1108,7 +1105,7 @@
         <v>3.7</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>160</v>
@@ -1119,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>175</v>
@@ -1130,7 +1127,7 @@
         <v>3.2</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>180</v>
@@ -1141,7 +1138,7 @@
         <v>3.5</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>167</v>
@@ -1152,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>115</v>
@@ -1163,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>205</v>
@@ -1174,7 +1171,7 @@
         <v>3.4</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1185,7 +1182,7 @@
         <v>2.8</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>128</v>
@@ -1196,7 +1193,7 @@
         <v>3.65</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>150</v>
@@ -1207,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>150</v>
@@ -1218,7 +1215,7 @@
         <v>3.7</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>150</v>
@@ -1229,7 +1226,7 @@
         <v>3.4</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>170</v>
@@ -1240,7 +1237,7 @@
         <v>3.89</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>150</v>
@@ -1251,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>175</v>
@@ -1262,7 +1259,7 @@
         <v>3.4</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>140</v>
@@ -1273,7 +1270,7 @@
         <v>2.9</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>120</v>
@@ -1284,7 +1281,7 @@
         <v>3.6</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>135</v>
@@ -1295,7 +1292,7 @@
         <v>3.5</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -1306,7 +1303,7 @@
         <v>3.2</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>170</v>
@@ -1317,7 +1314,7 @@
         <v>3.605</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>113</v>
@@ -1328,7 +1325,7 @@
         <v>3.8</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>168</v>
@@ -1339,7 +1336,7 @@
         <v>2.8</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>145</v>
@@ -1350,7 +1347,7 @@
         <v>3.5</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>155</v>
@@ -1361,7 +1358,7 @@
         <v>3.83</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>150</v>
@@ -1372,7 +1369,7 @@
         <v>3.6</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>169</v>
@@ -1383,7 +1380,7 @@
         <v>3.3</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>185</v>
@@ -1394,7 +1391,7 @@
         <v>3.3</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>200</v>
@@ -1405,7 +1402,7 @@
         <v>3.2919999999999998</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>265</v>
@@ -1416,7 +1413,7 @@
         <v>3.5</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>165</v>
@@ -1427,7 +1424,7 @@
         <v>3.35</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>192</v>
@@ -1438,7 +1435,7 @@
         <v>3.8</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>175</v>
@@ -1449,7 +1446,7 @@
         <v>2.8</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>140</v>
@@ -1460,7 +1457,7 @@
         <v>3.5</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>155</v>
@@ -1471,7 +1468,7 @@
         <v>3.7</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>155</v>
@@ -1482,7 +1479,7 @@
         <v>3.6</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>135</v>
@@ -1493,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>118</v>
@@ -1504,7 +1501,7 @@
         <v>3.9</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>210</v>
@@ -1515,7 +1512,7 @@
         <v>2.6</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>180</v>
@@ -1526,7 +1523,7 @@
         <v>3.5</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>140</v>
@@ -1537,7 +1534,7 @@
         <v>3.2</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -1548,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>125</v>
@@ -1559,10 +1556,10 @@
         <v>3.6</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,7 +1567,7 @@
         <v>3.2</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>145</v>
@@ -1581,7 +1578,7 @@
         <v>3.67</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>130</v>
@@ -1592,7 +1589,7 @@
         <v>3.73</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>140</v>
@@ -1603,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>140</v>
@@ -1614,7 +1611,7 @@
         <v>3.1</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>140</v>
@@ -1625,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>200</v>
@@ -1647,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>120</v>
@@ -1658,7 +1655,7 @@
         <v>3.7</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <v>150</v>
@@ -1669,7 +1666,7 @@
         <v>3.1</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>200</v>
@@ -1680,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>135</v>
@@ -1691,7 +1688,7 @@
         <v>3.9</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>145</v>
@@ -1702,7 +1699,7 @@
         <v>3.4</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>130</v>
@@ -1713,7 +1710,7 @@
         <v>3.5</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>190</v>
@@ -1724,7 +1721,7 @@
         <v>3.7</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>170</v>
@@ -1735,7 +1732,7 @@
         <v>3.7</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>127</v>
@@ -1746,7 +1743,7 @@
         <v>3.83</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>167</v>
@@ -1757,7 +1754,7 @@
         <v>2.6</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>140</v>
@@ -1768,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>190</v>
@@ -1779,7 +1776,7 @@
         <v>3.2</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <v>155</v>
@@ -1790,7 +1787,7 @@
         <v>3.5</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>175</v>
@@ -1801,7 +1798,7 @@
         <v>3.2</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>129</v>
@@ -1812,7 +1809,7 @@
         <v>3.68</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>260</v>
@@ -1823,7 +1820,7 @@
         <v>3.8</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>135</v>
@@ -1834,7 +1831,7 @@
         <v>3.3</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <v>190</v>
@@ -1845,7 +1842,7 @@
         <v>3.2</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <v>165</v>
@@ -1856,7 +1853,7 @@
         <v>3.75</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>175</v>
@@ -1867,7 +1864,7 @@
         <v>3.5</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>184</v>
@@ -1878,7 +1875,7 @@
         <v>3.92</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <v>210</v>
@@ -1889,7 +1886,7 @@
         <v>3.9</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <v>155</v>
@@ -1900,7 +1897,7 @@
         <v>3.9</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <v>185</v>
@@ -1911,7 +1908,7 @@
         <v>3.2</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -1922,7 +1919,7 @@
         <v>3.5</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102">
         <v>125</v>
@@ -1933,7 +1930,7 @@
         <v>3.4</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>160</v>
@@ -1944,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104">
         <v>135</v>
@@ -1955,7 +1952,7 @@
         <v>3.7</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <v>130</v>
@@ -1966,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <v>230</v>
@@ -1977,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107">
         <v>125</v>
@@ -1988,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108">
         <v>130</v>
@@ -1999,7 +1996,7 @@
         <v>3.8</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <v>165</v>
@@ -2010,7 +2007,7 @@
         <v>3.8</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>128</v>
@@ -2021,7 +2018,7 @@
         <v>3.4</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <v>200</v>
@@ -2032,7 +2029,7 @@
         <v>3.7</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>160</v>
@@ -2043,7 +2040,7 @@
         <v>2.9</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>170</v>
@@ -2054,7 +2051,7 @@
         <v>3.9</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>129</v>
@@ -2065,7 +2062,7 @@
         <v>3.6</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115">
         <v>170</v>
@@ -2076,7 +2073,7 @@
         <v>2.8</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116">
         <v>138</v>
@@ -2087,7 +2084,7 @@
         <v>3.3</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <v>150</v>
@@ -2098,7 +2095,7 @@
         <v>3.4</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>170</v>
@@ -2109,7 +2106,7 @@
         <v>3.77</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <v>113</v>
@@ -2120,7 +2117,7 @@
         <v>3.63</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>140</v>
@@ -2131,7 +2128,7 @@
         <v>3.2</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121">
         <v>185</v>
@@ -2142,7 +2139,7 @@
         <v>3.5</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <v>156</v>
@@ -2153,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123">
         <v>180</v>
@@ -2164,7 +2161,7 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <v>120</v>
@@ -2175,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125">
         <v>135</v>
@@ -2186,7 +2183,7 @@
         <v>3.9</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126">
         <v>135</v>

--- a/dashboard/assets/data/test.xlsx
+++ b/dashboard/assets/data/test.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo/Desktop/data-runners/dashboard/assets/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7C735-7705-EF44-AD9D-FECC5E688A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>GPA</t>
   </si>
@@ -410,14 +429,46 @@
   </si>
   <si>
     <t>Chocolates, pizza, and Ritz.</t>
+  </si>
+  <si>
+    <t>2019-20-20</t>
+  </si>
+  <si>
+    <t>2029-10-10</t>
+  </si>
+  <si>
+    <t>2010-8-8</t>
+  </si>
+  <si>
+    <t>yahoo@yahoo.com</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>joshua tree</t>
+  </si>
+  <si>
+    <t>yosemite</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dotcom@dotcom.com</t>
+  </si>
+  <si>
+    <t>microsoft@microsoft.com</t>
+  </si>
+  <si>
+    <t>sequioa park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +481,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,44 +515,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,10 +559,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -545,71 +600,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,7 +692,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -660,11 +715,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -673,13 +728,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -689,7 +744,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -698,7 +753,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -707,7 +762,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -715,10 +770,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -783,23 +838,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +869,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="E1" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2.4</v>
       </c>
@@ -826,10 +886,13 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="E2" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>3.654</v>
+        <v>3.6539999999999999</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -837,9 +900,11 @@
       <c r="C3" s="5">
         <v>155</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3.3</v>
       </c>
@@ -849,9 +914,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3.2</v>
       </c>
@@ -861,9 +928,14 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3.5</v>
       </c>
@@ -876,8 +948,11 @@
       <c r="D6" s="5">
         <v>234234</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2.25</v>
       </c>
@@ -890,8 +965,11 @@
       <c r="D7" s="5">
         <v>2342</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3.8</v>
       </c>
@@ -901,9 +979,14 @@
       <c r="C8" s="5">
         <v>180</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="D8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3.3</v>
       </c>
@@ -913,9 +996,11 @@
       <c r="C9" s="5">
         <v>137</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>3.3</v>
       </c>
@@ -925,9 +1010,11 @@
       <c r="C10" s="5">
         <v>180</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="D10" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3.3</v>
       </c>
@@ -937,9 +1024,8 @@
       <c r="C11" s="5">
         <v>125</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>3.5</v>
       </c>
@@ -949,11 +1035,13 @@
       <c r="C12" s="5">
         <v>116</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="D12" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>3.904</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -961,9 +1049,8 @@
       <c r="C13" s="5">
         <v>110</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3.4</v>
       </c>
@@ -973,9 +1060,11 @@
       <c r="C14" s="5">
         <v>264</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="D14" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>3.6</v>
       </c>
@@ -985,9 +1074,8 @@
       <c r="C15" s="5">
         <v>123</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>3.1</v>
       </c>
@@ -997,9 +1085,8 @@
       <c r="C16" s="5">
         <v>185</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    </row>
+    <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,9 +1096,8 @@
       <c r="C17" s="5">
         <v>180</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    </row>
+    <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1021,9 +1107,8 @@
       <c r="C18" s="5">
         <v>145</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    </row>
+    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3.6</v>
       </c>
@@ -1033,9 +1118,8 @@
       <c r="C19" s="5">
         <v>170</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    </row>
+    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>3.4</v>
       </c>
@@ -1045,11 +1129,10 @@
       <c r="C20" s="5">
         <v>135</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    </row>
+    <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1057,9 +1140,8 @@
       <c r="C21" s="5">
         <v>165</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>3.3</v>
       </c>
@@ -1069,9 +1151,8 @@
       <c r="C22" s="5">
         <v>175</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    </row>
+    <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>3.87</v>
       </c>
@@ -1081,9 +1162,8 @@
       <c r="C23" s="5">
         <v>195</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    </row>
+    <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3.7</v>
       </c>
@@ -1093,9 +1173,8 @@
       <c r="C24" s="5">
         <v>185</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    </row>
+    <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>3.7</v>
       </c>
@@ -1105,9 +1184,8 @@
       <c r="C25" s="5">
         <v>185</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    </row>
+    <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>3.9</v>
       </c>
@@ -1117,9 +1195,8 @@
       <c r="C26" s="5">
         <v>105</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    </row>
+    <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2.8</v>
       </c>
@@ -1129,9 +1206,8 @@
       <c r="C27" s="5">
         <v>125</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    </row>
+    <row r="28" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>3.7</v>
       </c>
@@ -1141,9 +1217,8 @@
       <c r="C28" s="5">
         <v>160</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    </row>
+    <row r="29" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -1153,9 +1228,8 @@
       <c r="C29" s="5">
         <v>175</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    </row>
+    <row r="30" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>3.2</v>
       </c>
@@ -1165,9 +1239,8 @@
       <c r="C30" s="5">
         <v>180</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    </row>
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>3.5</v>
       </c>
@@ -1177,9 +1250,8 @@
       <c r="C31" s="5">
         <v>167</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    </row>
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>4</v>
       </c>
@@ -1189,9 +1261,8 @@
       <c r="C32" s="5">
         <v>115</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1201,9 +1272,8 @@
       <c r="C33" s="5">
         <v>205</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    </row>
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>3.4</v>
       </c>
@@ -1213,9 +1283,8 @@
       <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    </row>
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2.8</v>
       </c>
@@ -1225,9 +1294,8 @@
       <c r="C35" s="5">
         <v>128</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    </row>
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>3.65</v>
       </c>
@@ -1237,9 +1305,8 @@
       <c r="C36" s="5">
         <v>150</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    </row>
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>3</v>
       </c>
@@ -1249,9 +1316,8 @@
       <c r="C37" s="5">
         <v>150</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    </row>
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>3.7</v>
       </c>
@@ -1261,9 +1327,8 @@
       <c r="C38" s="5">
         <v>150</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    </row>
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>3.4</v>
       </c>
@@ -1273,9 +1338,8 @@
       <c r="C39" s="5">
         <v>170</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    </row>
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>3.89</v>
       </c>
@@ -1285,9 +1349,8 @@
       <c r="C40" s="5">
         <v>150</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    </row>
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>3</v>
       </c>
@@ -1297,9 +1360,8 @@
       <c r="C41" s="5">
         <v>175</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    </row>
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>3.4</v>
       </c>
@@ -1309,9 +1371,8 @@
       <c r="C42" s="5">
         <v>140</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    </row>
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2.9</v>
       </c>
@@ -1321,9 +1382,8 @@
       <c r="C43" s="5">
         <v>120</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    </row>
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>3.6</v>
       </c>
@@ -1333,9 +1393,8 @@
       <c r="C44" s="5">
         <v>135</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    </row>
+    <row r="45" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>3.5</v>
       </c>
@@ -1345,9 +1404,8 @@
       <c r="C45" s="5">
         <v>100</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    </row>
+    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>3.2</v>
       </c>
@@ -1357,9 +1415,8 @@
       <c r="C46" s="5">
         <v>170</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    </row>
+    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>3.605</v>
       </c>
@@ -1369,9 +1426,8 @@
       <c r="C47" s="5">
         <v>113</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    </row>
+    <row r="48" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>3.8</v>
       </c>
@@ -1381,9 +1437,8 @@
       <c r="C48" s="5">
         <v>168</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    </row>
+    <row r="49" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2.8</v>
       </c>
@@ -1393,9 +1448,8 @@
       <c r="C49" s="5">
         <v>145</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    </row>
+    <row r="50" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>3.5</v>
       </c>
@@ -1405,9 +1459,8 @@
       <c r="C50" s="5">
         <v>155</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    </row>
+    <row r="51" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>3.83</v>
       </c>
@@ -1417,9 +1470,8 @@
       <c r="C51" s="5">
         <v>150</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    </row>
+    <row r="52" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>3.6</v>
       </c>
@@ -1429,9 +1481,8 @@
       <c r="C52" s="5">
         <v>169</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    </row>
+    <row r="53" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>3.3</v>
       </c>
@@ -1441,9 +1492,8 @@
       <c r="C53" s="5">
         <v>185</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    </row>
+    <row r="54" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>3.3</v>
       </c>
@@ -1453,11 +1503,10 @@
       <c r="C54" s="5">
         <v>200</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    </row>
+    <row r="55" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>3.292</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
@@ -1465,9 +1514,8 @@
       <c r="C55" s="5">
         <v>265</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    </row>
+    <row r="56" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>3.5</v>
       </c>
@@ -1477,9 +1525,8 @@
       <c r="C56" s="5">
         <v>165</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    </row>
+    <row r="57" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>3.35</v>
       </c>
@@ -1489,9 +1536,8 @@
       <c r="C57" s="5">
         <v>192</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    </row>
+    <row r="58" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>3.8</v>
       </c>
@@ -1501,9 +1547,8 @@
       <c r="C58" s="5">
         <v>175</v>
       </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    </row>
+    <row r="59" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2.8</v>
       </c>
@@ -1513,9 +1558,8 @@
       <c r="C59" s="5">
         <v>140</v>
       </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    </row>
+    <row r="60" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>3.5</v>
       </c>
@@ -1525,9 +1569,8 @@
       <c r="C60" s="5">
         <v>155</v>
       </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    </row>
+    <row r="61" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>3.7</v>
       </c>
@@ -1537,9 +1580,8 @@
       <c r="C61" s="5">
         <v>155</v>
       </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    </row>
+    <row r="62" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>3.6</v>
       </c>
@@ -1549,9 +1591,8 @@
       <c r="C62" s="5">
         <v>135</v>
       </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    </row>
+    <row r="63" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -1561,9 +1602,8 @@
       <c r="C63" s="5">
         <v>118</v>
       </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    </row>
+    <row r="64" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>3.9</v>
       </c>
@@ -1573,9 +1613,8 @@
       <c r="C64" s="5">
         <v>210</v>
       </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    </row>
+    <row r="65" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2.6</v>
       </c>
@@ -1585,9 +1624,8 @@
       <c r="C65" s="5">
         <v>180</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    </row>
+    <row r="66" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>3.5</v>
       </c>
@@ -1597,9 +1635,8 @@
       <c r="C66" s="5">
         <v>140</v>
       </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    </row>
+    <row r="67" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>3.2</v>
       </c>
@@ -1609,9 +1646,8 @@
       <c r="C67" s="5">
         <v>112</v>
       </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    </row>
+    <row r="68" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>3</v>
       </c>
@@ -1621,9 +1657,8 @@
       <c r="C68" s="5">
         <v>125</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    </row>
+    <row r="69" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>3.6</v>
       </c>
@@ -1633,9 +1668,8 @@
       <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    </row>
+    <row r="70" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>3.2</v>
       </c>
@@ -1645,9 +1679,8 @@
       <c r="C70" s="5">
         <v>145</v>
       </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    </row>
+    <row r="71" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>3.67</v>
       </c>
@@ -1657,9 +1690,8 @@
       <c r="C71" s="5">
         <v>130</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    </row>
+    <row r="72" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>3.73</v>
       </c>
@@ -1669,9 +1701,8 @@
       <c r="C72" s="5">
         <v>140</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    </row>
+    <row r="73" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>4</v>
       </c>
@@ -1681,9 +1712,8 @@
       <c r="C73" s="5">
         <v>140</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    </row>
+    <row r="74" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>3.1</v>
       </c>
@@ -1693,9 +1723,8 @@
       <c r="C74" s="5">
         <v>140</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    </row>
+    <row r="75" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -1705,9 +1734,8 @@
       <c r="C75" s="5">
         <v>200</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    </row>
+    <row r="76" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2.71</v>
       </c>
@@ -1717,9 +1745,8 @@
       <c r="C76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    </row>
+    <row r="77" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>3</v>
       </c>
@@ -1729,9 +1756,8 @@
       <c r="C77" s="5">
         <v>120</v>
       </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    </row>
+    <row r="78" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3.7</v>
       </c>
@@ -1741,9 +1767,8 @@
       <c r="C78" s="5">
         <v>150</v>
       </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    </row>
+    <row r="79" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3.1</v>
       </c>
@@ -1753,9 +1778,8 @@
       <c r="C79" s="5">
         <v>200</v>
       </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    </row>
+    <row r="80" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -1765,9 +1789,8 @@
       <c r="C80" s="5">
         <v>135</v>
       </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    </row>
+    <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3.9</v>
       </c>
@@ -1777,9 +1800,8 @@
       <c r="C81" s="5">
         <v>145</v>
       </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    </row>
+    <row r="82" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3.4</v>
       </c>
@@ -1789,9 +1811,8 @@
       <c r="C82" s="5">
         <v>130</v>
       </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    </row>
+    <row r="83" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3.5</v>
       </c>
@@ -1801,9 +1822,8 @@
       <c r="C83" s="5">
         <v>190</v>
       </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    </row>
+    <row r="84" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3.7</v>
       </c>
@@ -1813,9 +1833,8 @@
       <c r="C84" s="5">
         <v>170</v>
       </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    </row>
+    <row r="85" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3.7</v>
       </c>
@@ -1825,9 +1844,8 @@
       <c r="C85" s="5">
         <v>127</v>
       </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    </row>
+    <row r="86" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3.83</v>
       </c>
@@ -1837,9 +1855,8 @@
       <c r="C86" s="5">
         <v>167</v>
       </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    </row>
+    <row r="87" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2.6</v>
       </c>
@@ -1849,9 +1866,8 @@
       <c r="C87" s="5">
         <v>140</v>
       </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    </row>
+    <row r="88" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>3</v>
       </c>
@@ -1861,9 +1877,8 @@
       <c r="C88" s="5">
         <v>190</v>
       </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    </row>
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3.2</v>
       </c>
@@ -1873,9 +1888,8 @@
       <c r="C89" s="5">
         <v>155</v>
       </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    </row>
+    <row r="90" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3.5</v>
       </c>
@@ -1885,9 +1899,8 @@
       <c r="C90" s="5">
         <v>175</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    </row>
+    <row r="91" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3.2</v>
       </c>
@@ -1897,9 +1910,8 @@
       <c r="C91" s="5">
         <v>129</v>
       </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    </row>
+    <row r="92" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3.68</v>
       </c>
@@ -1909,9 +1921,8 @@
       <c r="C92" s="5">
         <v>260</v>
       </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    </row>
+    <row r="93" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3.8</v>
       </c>
@@ -1921,9 +1932,8 @@
       <c r="C93" s="5">
         <v>135</v>
       </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    </row>
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3.3</v>
       </c>
@@ -1933,9 +1943,8 @@
       <c r="C94" s="5">
         <v>190</v>
       </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    </row>
+    <row r="95" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3.2</v>
       </c>
@@ -1945,9 +1954,8 @@
       <c r="C95" s="5">
         <v>165</v>
       </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    </row>
+    <row r="96" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3.75</v>
       </c>
@@ -1957,9 +1965,8 @@
       <c r="C96" s="5">
         <v>175</v>
       </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    </row>
+    <row r="97" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3.5</v>
       </c>
@@ -1969,9 +1976,8 @@
       <c r="C97" s="5">
         <v>184</v>
       </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    </row>
+    <row r="98" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>3.92</v>
       </c>
@@ -1981,9 +1987,8 @@
       <c r="C98" s="5">
         <v>210</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+    </row>
+    <row r="99" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3.9</v>
       </c>
@@ -1993,9 +1998,8 @@
       <c r="C99" s="5">
         <v>155</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    </row>
+    <row r="100" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>3.9</v>
       </c>
@@ -2005,9 +2009,8 @@
       <c r="C100" s="5">
         <v>185</v>
       </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    </row>
+    <row r="101" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3.2</v>
       </c>
@@ -2017,9 +2020,8 @@
       <c r="C101" s="5">
         <v>165</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    </row>
+    <row r="102" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3.5</v>
       </c>
@@ -2029,9 +2031,8 @@
       <c r="C102" s="5">
         <v>125</v>
       </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    </row>
+    <row r="103" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>3.4</v>
       </c>
@@ -2041,9 +2042,8 @@
       <c r="C103" s="5">
         <v>160</v>
       </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    </row>
+    <row r="104" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
@@ -2053,9 +2053,8 @@
       <c r="C104" s="5">
         <v>135</v>
       </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    </row>
+    <row r="105" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>3.7</v>
       </c>
@@ -2065,9 +2064,8 @@
       <c r="C105" s="5">
         <v>130</v>
       </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    </row>
+    <row r="106" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -2077,9 +2075,8 @@
       <c r="C106" s="5">
         <v>230</v>
       </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    </row>
+    <row r="107" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>3</v>
       </c>
@@ -2089,9 +2086,8 @@
       <c r="C107" s="5">
         <v>125</v>
       </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    </row>
+    <row r="108" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>3</v>
       </c>
@@ -2101,9 +2097,8 @@
       <c r="C108" s="5">
         <v>130</v>
       </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    </row>
+    <row r="109" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3.8</v>
       </c>
@@ -2113,9 +2108,8 @@
       <c r="C109" s="5">
         <v>165</v>
       </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    </row>
+    <row r="110" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3.8</v>
       </c>
@@ -2125,9 +2119,8 @@
       <c r="C110" s="5">
         <v>128</v>
       </c>
-      <c r="D110" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    </row>
+    <row r="111" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3.4</v>
       </c>
@@ -2137,9 +2130,8 @@
       <c r="C111" s="5">
         <v>200</v>
       </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+    </row>
+    <row r="112" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3.7</v>
       </c>
@@ -2149,9 +2141,8 @@
       <c r="C112" s="5">
         <v>160</v>
       </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+    </row>
+    <row r="113" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>2.9</v>
       </c>
@@ -2161,9 +2152,8 @@
       <c r="C113" s="5">
         <v>170</v>
       </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+    </row>
+    <row r="114" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>3.9</v>
       </c>
@@ -2173,9 +2163,8 @@
       <c r="C114" s="5">
         <v>129</v>
       </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+    </row>
+    <row r="115" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>3.6</v>
       </c>
@@ -2185,9 +2174,8 @@
       <c r="C115" s="5">
         <v>170</v>
       </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+    </row>
+    <row r="116" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>2.8</v>
       </c>
@@ -2197,9 +2185,8 @@
       <c r="C116" s="5">
         <v>138</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    </row>
+    <row r="117" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>3.3</v>
       </c>
@@ -2209,9 +2196,8 @@
       <c r="C117" s="5">
         <v>150</v>
       </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    </row>
+    <row r="118" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>3.4</v>
       </c>
@@ -2221,9 +2207,8 @@
       <c r="C118" s="5">
         <v>170</v>
       </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    </row>
+    <row r="119" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>3.77</v>
       </c>
@@ -2233,9 +2218,8 @@
       <c r="C119" s="5">
         <v>113</v>
       </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    </row>
+    <row r="120" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>3.63</v>
       </c>
@@ -2245,9 +2229,8 @@
       <c r="C120" s="5">
         <v>140</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    </row>
+    <row r="121" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>3.2</v>
       </c>
@@ -2257,9 +2240,8 @@
       <c r="C121" s="5">
         <v>185</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    </row>
+    <row r="122" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>3.5</v>
       </c>
@@ -2269,9 +2251,8 @@
       <c r="C122" s="5">
         <v>156</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    </row>
+    <row r="123" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>3</v>
       </c>
@@ -2281,11 +2262,10 @@
       <c r="C123" s="5">
         <v>180</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    </row>
+    <row r="124" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>3.882</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>129</v>
@@ -2293,9 +2273,8 @@
       <c r="C124" s="5">
         <v>120</v>
       </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    </row>
+    <row r="125" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>3</v>
       </c>
@@ -2305,9 +2284,8 @@
       <c r="C125" s="5">
         <v>135</v>
       </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+    </row>
+    <row r="126" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>3.9</v>
       </c>
@@ -2317,9 +2295,13 @@
       <c r="C126" s="5">
         <v>135</v>
       </c>
-      <c r="D126" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D8E7127D-6838-3A40-A0D5-B97C319B69D4}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{37098989-7BC1-D54B-AB05-06A17DB13A6C}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{20E5688A-C46F-E644-8056-E7572BBFD720}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>